--- a/biology/Mycologie/Bothia_castanella/Bothia_castanella.xlsx
+++ b/biology/Mycologie/Bothia_castanella/Bothia_castanella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bothia castanella, autrefois[Quand ?] Boletus castanellus[réf. nécessaire], de son nom vernaculaire, le Bolet des chataigneraies, est une espèce de champignons de la famille des Boletaceae. C’est l’unique espèce décrite du genre Bothia. Ses originalités lui avaient valu précédemment un déplacement dans sept genres différents, avant que la phylogénétique précise que c'est l'espèce d'un seul clade. 
 </t>
@@ -511,11 +523,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bothia Halling, T.J.Baroni &amp; Manfr.Binder, 2007
-Synonymes
-Boletinus castanellus Peck 1900 (synonyme)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothia Halling, T.J.Baroni &amp; Manfr.Binder, 2007
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bothia_castanella</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bothia_castanella</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boletinus castanellus Peck 1900 (synonyme)
 Boletinellus castanellus (Peck) Murrill 1909 (synonyme)
 Chalciporus castanellus (Peck) L.D. Gómez 1997 (synonyme)
 Gyrodon castanellus (Peck) Singer 1938 (synonyme)
@@ -525,31 +574,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Bothia_castanella</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bothia_castanella</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sporophore : Cuticule sec, grossièrement tomenteux à fibrilleux, agrégats subtomenteux, fibrilleux et apprimés. 
 Chair à texture douce, blanchâtre, non cyanescente. 
@@ -560,66 +611,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bothia_castanella</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bothia_castanella</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Côte Est de l'Amérique du Nord.
 Mycorhizes avec les Fagaceae et Quercus.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bothia_castanella</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bothia_castanella</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les analyses phylogénétiques sous-unité d'ADNr et recherches BLAST en utilisant la région ITS confirme son placement de Bothia castanella comme un lignée unique dans les Boletaceae.[style à revoir][réf. nécessaire]
-Bothia castanella[1] ex Boletinus castanellus</t>
         </is>
       </c>
     </row>
@@ -644,12 +666,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les analyses phylogénétiques sous-unité d'ADNr et recherches BLAST en utilisant la région ITS confirme son placement de Bothia castanella comme un lignée unique dans les Boletaceae.[style à revoir][réf. nécessaire]
+Bothia castanella ex Boletinus castanellus</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bothia_castanella</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bothia_castanella</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (28 octobre 2013)[2], Index Fungorum                                      (28 octobre 2013)[3] et NCBI  (28 octobre 2013)[4] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 octobre 2013), Index Fungorum                                      (28 octobre 2013) et NCBI  (28 octobre 2013) :
 Bothia castanella (Peck) Halling, T.J. Baroni &amp; Manfr. Binder 2007</t>
         </is>
       </c>
